--- a/data/Симбиозы и структура сообществ (Общая экология 2022)(1-64).xlsx
+++ b/data/Симбиозы и структура сообществ (Общая экология 2022)(1-64).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Почта</t>
   </si>
@@ -407,6 +407,30 @@
   </si>
   <si>
     <t>Александр Петруняк</t>
+  </si>
+  <si>
+    <t>st113681@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Пономарев Марк</t>
+  </si>
+  <si>
+    <t>st096656@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Рассадина Софья</t>
+  </si>
+  <si>
+    <t>st096355@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Котенко Александр</t>
+  </si>
+  <si>
+    <t>st096360@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Юхно София</t>
   </si>
 </sst>
 </file>
@@ -414,12 +438,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,17 +452,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,7 +477,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,14 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -482,25 +536,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,6 +552,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,21 +588,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -558,24 +604,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -588,37 +620,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,157 +804,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,13 +870,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,30 +899,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,175 +921,164 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1101,8 +1152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C65" totalsRowShown="0">
-  <autoFilter ref="A1:C65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C69" totalsRowShown="0">
+  <autoFilter ref="A1:C69"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1370,15 +1421,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25.8888888888889" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2096,7 +2148,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="66" ht="15.15" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A66" r:id="rId2" display="st113681@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
